--- a/biology/Botanique/Acacia_maitlandii/Acacia_maitlandii.xlsx
+++ b/biology/Botanique/Acacia_maitlandii/Acacia_maitlandii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia maitlandii F.Muell. (ou Maitland's wattle) est une espèce d'arbres de la famille des Fabaceae et du genre Acacia, présente au Australie.
 Son épithète spécifique maitlandii rend hommage au botaniste britannique Thomas Douglas Maitland.
